--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -468,10 +468,10 @@
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -596,7 +596,7 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -724,13 +724,13 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.072065052287741E-07</v>
+        <v>0.0005099866019993016</v>
       </c>
       <c r="D2">
-        <v>2.918621864189674E-07</v>
+        <v>0.0006863075709535593</v>
       </c>
       <c r="E2">
-        <v>1.576362173083545E-05</v>
+        <v>0.002954522280926408</v>
       </c>
       <c r="F2">
-        <v>6.439737733576756E-05</v>
+        <v>0.0144398756629347</v>
       </c>
       <c r="G2">
-        <v>6.257904106021783E-08</v>
+        <v>0.0003629518155701117</v>
       </c>
       <c r="H2">
-        <v>2.297227903458321E-07</v>
+        <v>0.000624128788740963</v>
       </c>
       <c r="I2">
-        <v>4.574118861455645E-12</v>
+        <v>2.032366721205214E-05</v>
       </c>
       <c r="J2">
-        <v>0.0002374350065619257</v>
+        <v>0.009378683866079207</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.072065052287741E-07</v>
+        <v>0.0005099866019993016</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.374867511147684E-06</v>
       </c>
       <c r="E3">
-        <v>5.285865545268109E-08</v>
+        <v>0.0003097350608742833</v>
       </c>
       <c r="F3">
-        <v>1.639947424525445E-07</v>
+        <v>0.0004501522631856769</v>
       </c>
       <c r="G3">
-        <v>4.43965141039282E-05</v>
+        <v>0.00424346945235432</v>
       </c>
       <c r="H3">
-        <v>3.330340163198997E-06</v>
+        <v>0.001458143148378221</v>
       </c>
       <c r="I3">
-        <v>0.007905195856036773</v>
+        <v>0.04841437440638074</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.852206422154779E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.918621864189674E-07</v>
+        <v>0.0006863075709535593</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.374867511147684E-06</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.973146040779028E-06</v>
+        <v>0.0008614675191416232</v>
       </c>
       <c r="F4">
-        <v>4.759524554476258E-07</v>
+        <v>0.0006227855471649946</v>
       </c>
       <c r="G4">
-        <v>0.0009805856104181387</v>
+        <v>0.01395811335666663</v>
       </c>
       <c r="H4">
-        <v>0.0002125400955770296</v>
+        <v>0.006765181803076281</v>
       </c>
       <c r="I4">
-        <v>0.02830815273900811</v>
+        <v>0.0939954178601945</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3.024653429939406E-07</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.576362173083545E-05</v>
+        <v>0.002954522280926408</v>
       </c>
       <c r="C5">
-        <v>5.285865545268109E-08</v>
+        <v>0.0003097350608742833</v>
       </c>
       <c r="D5">
-        <v>1.973146040779028E-06</v>
+        <v>0.0008614675191416232</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3.087671872870068E-05</v>
+        <v>0.003201539792706987</v>
       </c>
       <c r="G5">
-        <v>0.6551213602871635</v>
+        <v>0.7139669579277137</v>
       </c>
       <c r="H5">
-        <v>0.3034965256046604</v>
+        <v>0.3708102026103561</v>
       </c>
       <c r="I5">
-        <v>0.8275701142566656</v>
+        <v>0.8644818850851959</v>
       </c>
       <c r="J5">
-        <v>2.258021477108407E-05</v>
+        <v>0.002399303045043544</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.439737733576756E-05</v>
+        <v>0.0144398756629347</v>
       </c>
       <c r="C6">
-        <v>1.639947424525445E-07</v>
+        <v>0.0004501522631856769</v>
       </c>
       <c r="D6">
-        <v>4.759524554476258E-07</v>
+        <v>0.0006227855471649946</v>
       </c>
       <c r="E6">
-        <v>3.087671872870068E-05</v>
+        <v>0.003201539792706987</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.064350907409306E-07</v>
+        <v>0.0002899130442952647</v>
       </c>
       <c r="H6">
-        <v>4.676912586099036E-07</v>
+        <v>0.0005705696499835877</v>
       </c>
       <c r="I6">
-        <v>6.204814440025075E-12</v>
+        <v>1.207479872555872E-05</v>
       </c>
       <c r="J6">
-        <v>0.0005892621058949388</v>
+        <v>0.0119971898759561</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.257904106021783E-08</v>
+        <v>0.0003629518155701117</v>
       </c>
       <c r="C7">
-        <v>4.43965141039282E-05</v>
+        <v>0.00424346945235432</v>
       </c>
       <c r="D7">
-        <v>0.0009805856104181387</v>
+        <v>0.01395811335666663</v>
       </c>
       <c r="E7">
-        <v>0.6551213602871635</v>
+        <v>0.7139669579277137</v>
       </c>
       <c r="F7">
-        <v>1.064350907409306E-07</v>
+        <v>0.0002899130442952647</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4304542104820122</v>
+        <v>0.3370891896476373</v>
       </c>
       <c r="I7">
-        <v>0.412466826680993</v>
+        <v>0.5171735538696869</v>
       </c>
       <c r="J7">
-        <v>7.451103377187351E-06</v>
+        <v>0.004748961281126673</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.297227903458321E-07</v>
+        <v>0.000624128788740963</v>
       </c>
       <c r="C8">
-        <v>3.330340163198997E-06</v>
+        <v>0.001458143148378221</v>
       </c>
       <c r="D8">
-        <v>0.0002125400955770296</v>
+        <v>0.006765181803076281</v>
       </c>
       <c r="E8">
-        <v>0.3034965256046604</v>
+        <v>0.3708102026103561</v>
       </c>
       <c r="F8">
-        <v>4.676912586099036E-07</v>
+        <v>0.0005705696499835877</v>
       </c>
       <c r="G8">
-        <v>0.4304542104820122</v>
+        <v>0.3370891896476373</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.3434145802827069</v>
+        <v>0.4288856157437786</v>
       </c>
       <c r="J8">
-        <v>1.436502976570608E-07</v>
+        <v>0.0001936995406381925</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.574118861455645E-12</v>
+        <v>2.032366721205214E-05</v>
       </c>
       <c r="C9">
-        <v>0.007905195856036773</v>
+        <v>0.04841437440638074</v>
       </c>
       <c r="D9">
-        <v>0.02830815273900811</v>
+        <v>0.0939954178601945</v>
       </c>
       <c r="E9">
-        <v>0.8275701142566656</v>
+        <v>0.8644818850851959</v>
       </c>
       <c r="F9">
-        <v>6.204814440025075E-12</v>
+        <v>1.207479872555872E-05</v>
       </c>
       <c r="G9">
-        <v>0.412466826680993</v>
+        <v>0.5171735538696869</v>
       </c>
       <c r="H9">
-        <v>0.3434145802827069</v>
+        <v>0.4288856157437786</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1074863692764283</v>
+        <v>0.246855690628649</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0002374350065619257</v>
+        <v>0.009378683866079207</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.852206422154779E-07</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.024653429939406E-07</v>
       </c>
       <c r="E10">
-        <v>2.258021477108407E-05</v>
+        <v>0.002399303045043544</v>
       </c>
       <c r="F10">
-        <v>0.0005892621058949388</v>
+        <v>0.0119971898759561</v>
       </c>
       <c r="G10">
-        <v>7.451103377187351E-06</v>
+        <v>0.004748961281126673</v>
       </c>
       <c r="H10">
-        <v>1.436502976570608E-07</v>
+        <v>0.0001936995406381925</v>
       </c>
       <c r="I10">
-        <v>0.1074863692764283</v>
+        <v>0.246855690628649</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.396242731931773</v>
+        <v>4.488825824202573</v>
       </c>
       <c r="D2">
-        <v>5.202622437479681</v>
+        <v>4.334435018164408</v>
       </c>
       <c r="E2">
-        <v>4.362406186058131</v>
+        <v>3.590349634616223</v>
       </c>
       <c r="F2">
-        <v>4.031760124340916</v>
+        <v>2.790782439492524</v>
       </c>
       <c r="G2">
-        <v>5.497975447142958</v>
+        <v>4.667340732493028</v>
       </c>
       <c r="H2">
-        <v>5.24944387878774</v>
+        <v>4.3836733686979</v>
       </c>
       <c r="I2">
-        <v>7.098525383020857</v>
+        <v>6.276995050029293</v>
       </c>
       <c r="J2">
-        <v>3.703467274856496</v>
+        <v>3.0092115351993</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.396242731931773</v>
+        <v>-4.488825824202573</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.724771258265337</v>
+        <v>-7.22735218614586</v>
       </c>
       <c r="E3">
-        <v>-5.52955843217978</v>
+        <v>-4.75122377276956</v>
       </c>
       <c r="F3">
-        <v>-5.314778297800137</v>
+        <v>-4.554111045667168</v>
       </c>
       <c r="G3">
-        <v>-4.12129645988627</v>
+        <v>-3.408157909227119</v>
       </c>
       <c r="H3">
-        <v>-4.704769218255263</v>
+        <v>-3.947766999416877</v>
       </c>
       <c r="I3">
-        <v>-2.667302642162555</v>
+        <v>-2.162081006760383</v>
       </c>
       <c r="J3">
-        <v>-10.68713584744775</v>
+        <v>-9.129182374361463</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.202622437479681</v>
+        <v>-4.334435018164408</v>
       </c>
       <c r="C4">
-        <v>8.724771258265337</v>
+        <v>7.22735218614586</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-4.815427038242524</v>
+        <v>-4.217080848319907</v>
       </c>
       <c r="F4">
-        <v>-5.105875866768625</v>
+        <v>-4.38479189519682</v>
       </c>
       <c r="G4">
-        <v>-3.316562866592669</v>
+        <v>-2.808023278408015</v>
       </c>
       <c r="H4">
-        <v>-3.73226957649005</v>
+        <v>-3.17370585706138</v>
       </c>
       <c r="I4">
-        <v>-2.199657796692032</v>
+        <v>-1.796634031314869</v>
       </c>
       <c r="J4">
-        <v>-10.30172974832346</v>
+        <v>-9.085007528599535</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.362406186058131</v>
+        <v>-3.590349634616223</v>
       </c>
       <c r="C5">
-        <v>5.52955843217978</v>
+        <v>4.75122377276956</v>
       </c>
       <c r="D5">
-        <v>4.815427038242524</v>
+        <v>4.217080848319907</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.207178284449073</v>
+        <v>-3.549903625197971</v>
       </c>
       <c r="G5">
-        <v>0.4469386599301023</v>
+        <v>0.3740558391805323</v>
       </c>
       <c r="H5">
-        <v>1.030070970769872</v>
+        <v>0.9246534502568798</v>
       </c>
       <c r="I5">
-        <v>-0.2179381484299563</v>
+        <v>-0.173837323908816</v>
       </c>
       <c r="J5">
-        <v>-4.280018467573041</v>
+        <v>-3.695351410791463</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-4.031760124340916</v>
+        <v>-2.790782439492524</v>
       </c>
       <c r="C6">
-        <v>5.314778297800137</v>
+        <v>4.554111045667168</v>
       </c>
       <c r="D6">
-        <v>5.105875866768625</v>
+        <v>4.38479189519682</v>
       </c>
       <c r="E6">
-        <v>4.207178284449073</v>
+        <v>3.549903625197971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.397617933484799</v>
+        <v>4.786344920236681</v>
       </c>
       <c r="H6">
-        <v>5.109366068624396</v>
+        <v>4.430309985567148</v>
       </c>
       <c r="I6">
-        <v>7.05182820616937</v>
+        <v>6.590779123773242</v>
       </c>
       <c r="J6">
-        <v>3.459623790692439</v>
+        <v>2.884789777860116</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.497975447142958</v>
+        <v>-4.667340732493028</v>
       </c>
       <c r="C7">
-        <v>4.12129645988627</v>
+        <v>3.408157909227119</v>
       </c>
       <c r="D7">
-        <v>3.316562866592669</v>
+        <v>2.808023278408015</v>
       </c>
       <c r="E7">
-        <v>-0.4469386599301023</v>
+        <v>-0.3740558391805323</v>
       </c>
       <c r="F7">
-        <v>-5.397617933484799</v>
+        <v>-4.786344920236681</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7890824431502118</v>
+        <v>0.9940087980018663</v>
       </c>
       <c r="I7">
-        <v>-0.8202759252350861</v>
+        <v>-0.664488758506576</v>
       </c>
       <c r="J7">
-        <v>-4.530135977980099</v>
+        <v>-3.351585467001053</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-5.24944387878774</v>
+        <v>-4.3836733686979</v>
       </c>
       <c r="C8">
-        <v>4.704769218255263</v>
+        <v>3.947766999416877</v>
       </c>
       <c r="D8">
-        <v>3.73226957649005</v>
+        <v>3.17370585706138</v>
       </c>
       <c r="E8">
-        <v>-1.030070970769872</v>
+        <v>-0.9246534502568798</v>
       </c>
       <c r="F8">
-        <v>-5.109366068624396</v>
+        <v>-4.430309985567148</v>
       </c>
       <c r="G8">
-        <v>-0.7890824431502118</v>
+        <v>-0.9940087980018663</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.9483793543999272</v>
+        <v>-0.8147000302543833</v>
       </c>
       <c r="J8">
-        <v>-5.340272541130181</v>
+        <v>-5.00226644083312</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-7.098525383020857</v>
+        <v>-6.276995050029293</v>
       </c>
       <c r="C9">
-        <v>2.667302642162555</v>
+        <v>2.162081006760383</v>
       </c>
       <c r="D9">
-        <v>2.199657796692032</v>
+        <v>1.796634031314869</v>
       </c>
       <c r="E9">
-        <v>0.2179381484299563</v>
+        <v>0.173837323908816</v>
       </c>
       <c r="F9">
-        <v>-7.05182820616937</v>
+        <v>-6.590779123773242</v>
       </c>
       <c r="G9">
-        <v>0.8202759252350861</v>
+        <v>0.664488758506576</v>
       </c>
       <c r="H9">
-        <v>0.9483793543999272</v>
+        <v>0.8147000302543833</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-1.612616951739576</v>
+        <v>-1.208543195606404</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.703467274856496</v>
+        <v>-3.0092115351993</v>
       </c>
       <c r="C10">
-        <v>10.68713584744775</v>
+        <v>9.129182374361463</v>
       </c>
       <c r="D10">
-        <v>10.30172974832346</v>
+        <v>9.085007528599535</v>
       </c>
       <c r="E10">
-        <v>4.280018467573041</v>
+        <v>3.695351410791463</v>
       </c>
       <c r="F10">
-        <v>-3.459623790692439</v>
+        <v>-2.884789777860116</v>
       </c>
       <c r="G10">
-        <v>4.530135977980099</v>
+        <v>3.351585467001053</v>
       </c>
       <c r="H10">
-        <v>5.340272541130181</v>
+        <v>5.00226644083312</v>
       </c>
       <c r="I10">
-        <v>1.612616951739576</v>
+        <v>1.208543195606404</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
         <v>0.54443342947375</v>
@@ -1460,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0.9503585716635915</v>
@@ -1483,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>37.5</v>
@@ -1497,22 +1497,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>2.552051746246231</v>
+        <v>2.721317932732118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2.356508245692187</v>
@@ -1537,42 +1537,42 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3.838167971691867</v>
+        <v>8.793187674308667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.721317932732118</v>
+        <v>2.552051746246231</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,16 +1580,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>8.100587370775834</v>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>8.793187674308667</v>
+        <v>3.838167971691867</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -468,10 +468,10 @@
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -555,31 +555,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -596,7 +596,7 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,13 +654,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -724,16 +724,16 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0005099866019993016</v>
+        <v>1.196145999893261E-05</v>
       </c>
       <c r="D2">
-        <v>0.0006863075709535593</v>
+        <v>1.730293041424247E-05</v>
       </c>
       <c r="E2">
-        <v>0.002954522280926408</v>
+        <v>1.739925965349443E-05</v>
       </c>
       <c r="F2">
-        <v>0.0144398756629347</v>
+        <v>7.929563818898089E-07</v>
       </c>
       <c r="G2">
-        <v>0.0003629518155701117</v>
+        <v>1.775781174551128E-05</v>
       </c>
       <c r="H2">
-        <v>0.000624128788740963</v>
+        <v>9.562014261499385E-06</v>
       </c>
       <c r="I2">
-        <v>2.032366721205214E-05</v>
+        <v>2.561905756426341E-07</v>
       </c>
       <c r="J2">
-        <v>0.009378683866079207</v>
+        <v>3.41149801250662E-05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0005099866019993016</v>
+        <v>1.196145999893261E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.374867511147684E-06</v>
+        <v>2.871680671034937E-10</v>
       </c>
       <c r="E3">
-        <v>0.0003097350608742833</v>
+        <v>1.909705726887978E-10</v>
       </c>
       <c r="F3">
-        <v>0.0004501522631856769</v>
+        <v>1.809609234126874E-05</v>
       </c>
       <c r="G3">
-        <v>0.00424346945235432</v>
+        <v>6.523409734393582E-06</v>
       </c>
       <c r="H3">
-        <v>0.001458143148378221</v>
+        <v>4.799894612306232E-05</v>
       </c>
       <c r="I3">
-        <v>0.04841437440638074</v>
+        <v>0.004039212685293725</v>
       </c>
       <c r="J3">
-        <v>2.852206422154779E-07</v>
+        <v>3.035702191400702E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0006863075709535593</v>
+        <v>1.730293041424247E-05</v>
       </c>
       <c r="C4">
-        <v>4.374867511147684E-06</v>
+        <v>2.871680671034937E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0008614675191416232</v>
+        <v>0.4648512104952003</v>
       </c>
       <c r="F4">
-        <v>0.0006227855471649946</v>
+        <v>2.711168748170678E-05</v>
       </c>
       <c r="G4">
-        <v>0.01395811335666663</v>
+        <v>4.540729937829724E-05</v>
       </c>
       <c r="H4">
-        <v>0.006765181803076281</v>
+        <v>0.0001890983449928108</v>
       </c>
       <c r="I4">
-        <v>0.0939954178601945</v>
+        <v>0.01136375222443409</v>
       </c>
       <c r="J4">
-        <v>3.024653429939406E-07</v>
+        <v>1.036132068210627E-05</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002954522280926408</v>
+        <v>1.739925965349443E-05</v>
       </c>
       <c r="C5">
-        <v>0.0003097350608742833</v>
+        <v>1.909705726887978E-10</v>
       </c>
       <c r="D5">
-        <v>0.0008614675191416232</v>
+        <v>0.4648512104952003</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.003201539792706987</v>
+        <v>2.727097520804911E-05</v>
       </c>
       <c r="G5">
-        <v>0.7139669579277137</v>
+        <v>4.61372524604986E-05</v>
       </c>
       <c r="H5">
-        <v>0.3708102026103561</v>
+        <v>0.0001924683974696695</v>
       </c>
       <c r="I5">
-        <v>0.8644818850851959</v>
+        <v>0.01138966223823967</v>
       </c>
       <c r="J5">
-        <v>0.002399303045043544</v>
+        <v>1.061124738721553E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0144398756629347</v>
+        <v>7.929563818898089E-07</v>
       </c>
       <c r="C6">
-        <v>0.0004501522631856769</v>
+        <v>1.809609234126874E-05</v>
       </c>
       <c r="D6">
-        <v>0.0006227855471649946</v>
+        <v>2.711168748170678E-05</v>
       </c>
       <c r="E6">
-        <v>0.003201539792706987</v>
+        <v>2.727097520804911E-05</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0002899130442952647</v>
+        <v>3.088201248613309E-05</v>
       </c>
       <c r="H6">
-        <v>0.0005705696499835877</v>
+        <v>1.654071740508911E-05</v>
       </c>
       <c r="I6">
-        <v>1.207479872555872E-05</v>
+        <v>3.366800227500022E-07</v>
       </c>
       <c r="J6">
-        <v>0.0119971898759561</v>
+        <v>6.897137601558079E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0003629518155701117</v>
+        <v>1.775781174551128E-05</v>
       </c>
       <c r="C7">
-        <v>0.00424346945235432</v>
+        <v>6.523409734393582E-06</v>
       </c>
       <c r="D7">
-        <v>0.01395811335666663</v>
+        <v>4.540729937829724E-05</v>
       </c>
       <c r="E7">
-        <v>0.7139669579277137</v>
+        <v>4.61372524604986E-05</v>
       </c>
       <c r="F7">
-        <v>0.0002899130442952647</v>
+        <v>3.088201248613309E-05</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3370891896476373</v>
+        <v>0.03663174253547363</v>
       </c>
       <c r="I7">
-        <v>0.5171735538696869</v>
+        <v>0.421583251848237</v>
       </c>
       <c r="J7">
-        <v>0.004748961281126673</v>
+        <v>0.0009082679894119039</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.000624128788740963</v>
+        <v>9.562014261499385E-06</v>
       </c>
       <c r="C8">
-        <v>0.001458143148378221</v>
+        <v>4.799894612306232E-05</v>
       </c>
       <c r="D8">
-        <v>0.006765181803076281</v>
+        <v>0.0001890983449928108</v>
       </c>
       <c r="E8">
-        <v>0.3708102026103561</v>
+        <v>0.0001924683974696695</v>
       </c>
       <c r="F8">
-        <v>0.0005705696499835877</v>
+        <v>1.654071740508911E-05</v>
       </c>
       <c r="G8">
-        <v>0.3370891896476373</v>
+        <v>0.03663174253547363</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.4288856157437786</v>
+        <v>0.7490112388708563</v>
       </c>
       <c r="J8">
-        <v>0.0001936995406381925</v>
+        <v>0.02066818196988085</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.032366721205214E-05</v>
+        <v>2.561905756426341E-07</v>
       </c>
       <c r="C9">
-        <v>0.04841437440638074</v>
+        <v>0.004039212685293725</v>
       </c>
       <c r="D9">
-        <v>0.0939954178601945</v>
+        <v>0.01136375222443409</v>
       </c>
       <c r="E9">
-        <v>0.8644818850851959</v>
+        <v>0.01138966223823967</v>
       </c>
       <c r="F9">
-        <v>1.207479872555872E-05</v>
+        <v>3.366800227500022E-07</v>
       </c>
       <c r="G9">
-        <v>0.5171735538696869</v>
+        <v>0.421583251848237</v>
       </c>
       <c r="H9">
-        <v>0.4288856157437786</v>
+        <v>0.7490112388708563</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.246855690628649</v>
+        <v>0.1661957708514463</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.009378683866079207</v>
+        <v>3.41149801250662E-05</v>
       </c>
       <c r="C10">
-        <v>2.852206422154779E-07</v>
+        <v>3.035702191400702E-06</v>
       </c>
       <c r="D10">
-        <v>3.024653429939406E-07</v>
+        <v>1.036132068210627E-05</v>
       </c>
       <c r="E10">
-        <v>0.002399303045043544</v>
+        <v>1.061124738721553E-05</v>
       </c>
       <c r="F10">
-        <v>0.0119971898759561</v>
+        <v>6.897137601558079E-05</v>
       </c>
       <c r="G10">
-        <v>0.004748961281126673</v>
+        <v>0.0009082679894119039</v>
       </c>
       <c r="H10">
-        <v>0.0001936995406381925</v>
+        <v>0.02066818196988085</v>
       </c>
       <c r="I10">
-        <v>0.246855690628649</v>
+        <v>0.1661957708514463</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.488825824202573</v>
+        <v>5.618213963656305</v>
       </c>
       <c r="D2">
-        <v>4.334435018164408</v>
+        <v>5.46301540567845</v>
       </c>
       <c r="E2">
-        <v>3.590349634616223</v>
+        <v>5.460688653478012</v>
       </c>
       <c r="F2">
-        <v>2.790782439492524</v>
+        <v>6.794874639678036</v>
       </c>
       <c r="G2">
-        <v>4.667340732493028</v>
+        <v>5.452141651445608</v>
       </c>
       <c r="H2">
-        <v>4.3836733686979</v>
+        <v>5.712811208867133</v>
       </c>
       <c r="I2">
-        <v>6.276995050029293</v>
+        <v>7.308091428364257</v>
       </c>
       <c r="J2">
-        <v>3.0092115351993</v>
+        <v>5.179914922981187</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-4.488825824202573</v>
+        <v>-5.618213963656305</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.22735218614586</v>
+        <v>-10.8102702471419</v>
       </c>
       <c r="E3">
-        <v>-4.75122377276956</v>
+        <v>-11.04845361232773</v>
       </c>
       <c r="F3">
-        <v>-4.554111045667168</v>
+        <v>-5.444237064589954</v>
       </c>
       <c r="G3">
-        <v>-3.408157909227119</v>
+        <v>-5.875281541173124</v>
       </c>
       <c r="H3">
-        <v>-3.947766999416877</v>
+        <v>-5.038482788072625</v>
       </c>
       <c r="I3">
-        <v>-2.162081006760383</v>
+        <v>-3.20964507254487</v>
       </c>
       <c r="J3">
-        <v>-9.129182374361463</v>
+        <v>-6.204031951473536</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-4.334435018164408</v>
+        <v>-5.46301540567845</v>
       </c>
       <c r="C4">
-        <v>7.22735218614586</v>
+        <v>10.8102702471419</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-4.217080848319907</v>
+        <v>0.7438282333844527</v>
       </c>
       <c r="F4">
-        <v>-4.38479189519682</v>
+        <v>-5.275431533530881</v>
       </c>
       <c r="G4">
-        <v>-2.808023278408015</v>
+        <v>-5.061436207946594</v>
       </c>
       <c r="H4">
-        <v>-3.17370585706138</v>
+        <v>-4.474939089991696</v>
       </c>
       <c r="I4">
-        <v>-1.796634031314869</v>
+        <v>-2.762394594038127</v>
       </c>
       <c r="J4">
-        <v>-9.085007528599535</v>
+        <v>-5.678847999848221</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-3.590349634616223</v>
+        <v>-5.460688653478012</v>
       </c>
       <c r="C5">
-        <v>4.75122377276956</v>
+        <v>11.04845361232773</v>
       </c>
       <c r="D5">
-        <v>4.217080848319907</v>
+        <v>-0.7438282333844527</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.549903625197971</v>
+        <v>-5.272992668775374</v>
       </c>
       <c r="G5">
-        <v>0.3740558391805323</v>
+        <v>-5.054839861049807</v>
       </c>
       <c r="H5">
-        <v>0.9246534502568798</v>
+        <v>-4.467706966958408</v>
       </c>
       <c r="I5">
-        <v>-0.173837323908816</v>
+        <v>-2.761387235684701</v>
       </c>
       <c r="J5">
-        <v>-3.695351410791463</v>
+        <v>-5.66877401911773</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.790782439492524</v>
+        <v>-6.794874639678036</v>
       </c>
       <c r="C6">
-        <v>4.554111045667168</v>
+        <v>5.444237064589954</v>
       </c>
       <c r="D6">
-        <v>4.38479189519682</v>
+        <v>5.275431533530881</v>
       </c>
       <c r="E6">
-        <v>3.549903625197971</v>
+        <v>5.272992668775374</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.786344920236681</v>
+        <v>5.221267733252735</v>
       </c>
       <c r="H6">
-        <v>4.430309985567148</v>
+        <v>5.481903766668561</v>
       </c>
       <c r="I6">
-        <v>6.590779123773242</v>
+        <v>7.182534357456641</v>
       </c>
       <c r="J6">
-        <v>2.884789777860116</v>
+        <v>4.888900300851329</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-4.667340732493028</v>
+        <v>-5.452141651445608</v>
       </c>
       <c r="C7">
-        <v>3.408157909227119</v>
+        <v>5.875281541173124</v>
       </c>
       <c r="D7">
-        <v>2.808023278408015</v>
+        <v>5.061436207946594</v>
       </c>
       <c r="E7">
-        <v>-0.3740558391805323</v>
+        <v>5.054839861049807</v>
       </c>
       <c r="F7">
-        <v>-4.786344920236681</v>
+        <v>-5.221267733252735</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9940087980018663</v>
+        <v>-2.225234307113558</v>
       </c>
       <c r="I7">
-        <v>-0.664488758506576</v>
+        <v>-0.8189765915680302</v>
       </c>
       <c r="J7">
-        <v>-3.351585467001053</v>
+        <v>-3.831767157544332</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-4.3836733686979</v>
+        <v>-5.712811208867133</v>
       </c>
       <c r="C8">
-        <v>3.947766999416877</v>
+        <v>5.038482788072625</v>
       </c>
       <c r="D8">
-        <v>3.17370585706138</v>
+        <v>4.474939089991696</v>
       </c>
       <c r="E8">
-        <v>-0.9246534502568798</v>
+        <v>4.467706966958408</v>
       </c>
       <c r="F8">
-        <v>-4.430309985567148</v>
+        <v>-5.481903766668561</v>
       </c>
       <c r="G8">
-        <v>-0.9940087980018663</v>
+        <v>2.225234307113558</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.8147000302543833</v>
+        <v>0.3239825449588641</v>
       </c>
       <c r="J8">
-        <v>-5.00226644083312</v>
+        <v>-2.493278144808897</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-6.276995050029293</v>
+        <v>-7.308091428364257</v>
       </c>
       <c r="C9">
-        <v>2.162081006760383</v>
+        <v>3.20964507254487</v>
       </c>
       <c r="D9">
-        <v>1.796634031314869</v>
+        <v>2.762394594038127</v>
       </c>
       <c r="E9">
-        <v>0.173837323908816</v>
+        <v>2.761387235684701</v>
       </c>
       <c r="F9">
-        <v>-6.590779123773242</v>
+        <v>-7.182534357456641</v>
       </c>
       <c r="G9">
-        <v>0.664488758506576</v>
+        <v>0.8189765915680302</v>
       </c>
       <c r="H9">
-        <v>0.8147000302543833</v>
+        <v>-0.3239825449588641</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-1.208543195606404</v>
+        <v>-1.432012468947496</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.0092115351993</v>
+        <v>-5.179914922981187</v>
       </c>
       <c r="C10">
-        <v>9.129182374361463</v>
+        <v>6.204031951473536</v>
       </c>
       <c r="D10">
-        <v>9.085007528599535</v>
+        <v>5.678847999848221</v>
       </c>
       <c r="E10">
-        <v>3.695351410791463</v>
+        <v>5.66877401911773</v>
       </c>
       <c r="F10">
-        <v>-2.884789777860116</v>
+        <v>-4.888900300851329</v>
       </c>
       <c r="G10">
-        <v>3.351585467001053</v>
+        <v>3.831767157544332</v>
       </c>
       <c r="H10">
-        <v>5.00226644083312</v>
+        <v>2.493278144808897</v>
       </c>
       <c r="I10">
-        <v>1.208543195606404</v>
+        <v>1.432012468947496</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,84 +1440,84 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
       <c r="F2">
-        <v>0.54443342947375</v>
+        <v>0.5516878418358931</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
-        <v>0.9503585716635915</v>
+        <v>1.063151659439023</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>2.142119824503511</v>
+        <v>1.065029873706663</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F5">
-        <v>2.721317932732118</v>
+        <v>3.062431037147692</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1532,47 +1532,47 @@
         <v>25</v>
       </c>
       <c r="F6">
-        <v>2.356508245692187</v>
+        <v>3.541474767058375</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>8.793187674308667</v>
+        <v>4.240101111211249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>2.552051746246231</v>
+        <v>3.682333685301644</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,39 +1580,39 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F9">
-        <v>8.100587370775834</v>
+        <v>10.69214990499799</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.838167971691867</v>
+        <v>11.68761758450075</v>
       </c>
     </row>
   </sheetData>
